--- a/Gantt/Example.xlsx
+++ b/Gantt/Example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis Lentschig\Desktop\Python\DSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Git\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CAA98D-EC58-4984-9323-776D8E1C2F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE33B4EB-9C11-4FF6-8D31-E5D0608773BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Gantt/Example.xlsx
+++ b/Gantt/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Git\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE33B4EB-9C11-4FF6-8D31-E5D0608773BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8628EA2A-6912-4296-A634-1DF85D6396D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
-  <si>
-    <t>Task Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Assignee</t>
   </si>
@@ -39,9 +36,6 @@
     <t>Project rules</t>
   </si>
   <si>
-    <t>Tinka, Antonio, Dennis, Kim, Matteo, Nic, David, Kat</t>
-  </si>
-  <si>
     <t>Organogram</t>
   </si>
   <si>
@@ -54,18 +48,6 @@
     <t>WFD</t>
   </si>
   <si>
-    <t>Antonio, Matteo</t>
-  </si>
-  <si>
-    <t>Tinka, Dennis, David</t>
-  </si>
-  <si>
-    <t>Kat, Nic</t>
-  </si>
-  <si>
-    <t>Antonio, Kim</t>
-  </si>
-  <si>
     <t>End date</t>
   </si>
   <si>
@@ -78,33 +60,15 @@
     <t>Global picture</t>
   </si>
   <si>
-    <t>Matteo, Kim</t>
-  </si>
-  <si>
-    <t>Dennis, Nic</t>
-  </si>
-  <si>
-    <t>Tinka, Antonio, Kim, Nic, David, Dennis, Matteo, Kat</t>
-  </si>
-  <si>
     <t>Some shit</t>
   </si>
   <si>
-    <t>Dennis, David</t>
-  </si>
-  <si>
     <t>Some shit 2</t>
   </si>
   <si>
-    <t>Kim, Kat</t>
-  </si>
-  <si>
     <t>Some shit 3</t>
   </si>
   <si>
-    <t>Matteo, Nic</t>
-  </si>
-  <si>
     <t>Phase</t>
   </si>
   <si>
@@ -132,16 +96,70 @@
     <t>Poop 3</t>
   </si>
   <si>
-    <t>Tinka, Antonio, Nic</t>
-  </si>
-  <si>
     <t>Poop 4</t>
   </si>
   <si>
-    <t>Kim, Kat, Dennis</t>
-  </si>
-  <si>
     <t>Poop Report</t>
+  </si>
+  <si>
+    <t>Tinka,Antonio,Dennis,Kim,Matteo,Nic,David,Kat</t>
+  </si>
+  <si>
+    <t>Antonio,Matteo</t>
+  </si>
+  <si>
+    <t>Tinka,Dennis,David</t>
+  </si>
+  <si>
+    <t>Kat,Nic</t>
+  </si>
+  <si>
+    <t>Antonio,Kim</t>
+  </si>
+  <si>
+    <t>Tinka,Antonio,Kim,Nic,David,Dennis,Matteo,Kat</t>
+  </si>
+  <si>
+    <t>Dennis,Nic</t>
+  </si>
+  <si>
+    <t>Matteo,Kim</t>
+  </si>
+  <si>
+    <t>Dennis,David</t>
+  </si>
+  <si>
+    <t>Kim,Kat</t>
+  </si>
+  <si>
+    <t>Matteo,Nic</t>
+  </si>
+  <si>
+    <t>Tinka,Antonio,Nic</t>
+  </si>
+  <si>
+    <t>Kim,Kat,Dennis</t>
+  </si>
+  <si>
+    <t>Deliverable/Phase Name</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>s-Brainstorm tasks</t>
+  </si>
+  <si>
+    <t>s-Divide tasks</t>
+  </si>
+  <si>
+    <t>s-Make diagram</t>
+  </si>
+  <si>
+    <t>Duration (hours)</t>
   </si>
 </sst>
 </file>
@@ -190,12 +208,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -476,311 +496,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4">
+        <v>44508</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44512</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44508</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44509</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44508</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44510</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44508</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44508</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44508</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44508</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4">
-        <v>44508</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44508</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44508</v>
-      </c>
-      <c r="D4" s="1">
-        <v>44510</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44509</v>
-      </c>
-      <c r="D5" s="1">
-        <v>44512</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44511</v>
-      </c>
-      <c r="D6" s="1">
-        <v>44512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44508</v>
       </c>
       <c r="D7" s="1">
         <v>44509</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>44510</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44509</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44512</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44511</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44512</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44508</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44509</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44510</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44510</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44510</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44510</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44510</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44511</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="E14" s="1">
+        <v>44512</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4">
+        <v>44515</v>
+      </c>
+      <c r="E15" s="4">
+        <v>44518</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44515</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44515</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44515</v>
+      </c>
+      <c r="E17" s="1">
+        <v>44516</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44516</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44518</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="E19" s="1">
+        <v>44518</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4">
+        <v>44520</v>
+      </c>
+      <c r="E20" s="4">
+        <v>44531</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1">
-        <v>44510</v>
-      </c>
-      <c r="D8" s="1">
-        <v>44510</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44510</v>
-      </c>
-      <c r="D9" s="1">
-        <v>44510</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D21" s="1">
+        <v>44520</v>
+      </c>
+      <c r="E21" s="1">
+        <v>44521</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44521</v>
+      </c>
+      <c r="E22" s="1">
+        <v>44530</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44522</v>
+      </c>
+      <c r="E23" s="1">
+        <v>44528</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44524</v>
+      </c>
+      <c r="E24" s="1">
+        <v>44531</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44510</v>
-      </c>
-      <c r="D10" s="1">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1">
-        <v>44512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4">
-        <v>44515</v>
-      </c>
-      <c r="D12" s="4">
-        <v>44518</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1">
-        <v>44515</v>
-      </c>
-      <c r="D13" s="1">
-        <v>44515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1">
-        <v>44515</v>
-      </c>
-      <c r="D14" s="1">
-        <v>44516</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1">
-        <v>44516</v>
-      </c>
-      <c r="D15" s="1">
-        <v>44518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1">
-        <v>44518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="1">
-        <v>44520</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="D25" s="2"/>
+      <c r="E25" s="5">
         <v>44531</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44520</v>
-      </c>
-      <c r="D18" s="1">
-        <v>44521</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="1">
-        <v>44521</v>
-      </c>
-      <c r="D19" s="1">
-        <v>44530</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1">
-        <v>44522</v>
-      </c>
-      <c r="D20" s="1">
-        <v>44528</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="1">
-        <v>44524</v>
-      </c>
-      <c r="D21" s="1">
-        <v>44531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="1">
-        <v>44531</v>
-      </c>
+      <c r="F25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gantt/Example.xlsx
+++ b/Gantt/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Git\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8628EA2A-6912-4296-A634-1DF85D6396D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE5481C-D9FD-4975-B27E-5D2957DD2A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Gantt/Example.xlsx
+++ b/Gantt/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Git\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE5481C-D9FD-4975-B27E-5D2957DD2A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36860FAB-A142-43F3-BEB7-F41607190F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Assignee</t>
   </si>
@@ -72,15 +72,9 @@
     <t>Phase</t>
   </si>
   <si>
-    <t>Project Plan</t>
-  </si>
-  <si>
     <t>Deliverable</t>
   </si>
   <si>
-    <t>Baseline Report</t>
-  </si>
-  <si>
     <t>Poop 1</t>
   </si>
   <si>
@@ -102,51 +96,6 @@
     <t>Poop Report</t>
   </si>
   <si>
-    <t>Tinka,Antonio,Dennis,Kim,Matteo,Nic,David,Kat</t>
-  </si>
-  <si>
-    <t>Antonio,Matteo</t>
-  </si>
-  <si>
-    <t>Tinka,Dennis,David</t>
-  </si>
-  <si>
-    <t>Kat,Nic</t>
-  </si>
-  <si>
-    <t>Antonio,Kim</t>
-  </si>
-  <si>
-    <t>Tinka,Antonio,Kim,Nic,David,Dennis,Matteo,Kat</t>
-  </si>
-  <si>
-    <t>Dennis,Nic</t>
-  </si>
-  <si>
-    <t>Matteo,Kim</t>
-  </si>
-  <si>
-    <t>Dennis,David</t>
-  </si>
-  <si>
-    <t>Kim,Kat</t>
-  </si>
-  <si>
-    <t>Matteo,Nic</t>
-  </si>
-  <si>
-    <t>Tinka,Antonio,Nic</t>
-  </si>
-  <si>
-    <t>Kim,Kat,Dennis</t>
-  </si>
-  <si>
-    <t>Deliverable/Phase Name</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
     <t>Antonio</t>
   </si>
   <si>
@@ -159,7 +108,49 @@
     <t>s-Make diagram</t>
   </si>
   <si>
-    <t>Duration (hours)</t>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Tinka, Antonio, Dennis, Kim, Matteo, Nic, David, Kat</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Antonio, Matteo</t>
+  </si>
+  <si>
+    <t>Tinka, Dennis, David</t>
+  </si>
+  <si>
+    <t>Kat, Nic</t>
+  </si>
+  <si>
+    <t>Antonio, Kim</t>
+  </si>
+  <si>
+    <t>Tinka, Antonio, Kim, Nic, David, Dennis, Matteo, Kat</t>
+  </si>
+  <si>
+    <t>Dennis, Nic</t>
+  </si>
+  <si>
+    <t>Matteo, Kim</t>
+  </si>
+  <si>
+    <t>Dennis, David</t>
+  </si>
+  <si>
+    <t>Kim, Kat</t>
+  </si>
+  <si>
+    <t>Matteo, Nic</t>
+  </si>
+  <si>
+    <t>Tinka, Antonio, Nic</t>
+  </si>
+  <si>
+    <t>Kim, Kat, Dennis</t>
   </si>
 </sst>
 </file>
@@ -208,14 +199,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -496,400 +486,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4">
+        <v>44508</v>
+      </c>
       <c r="D2" s="4">
-        <v>44508</v>
-      </c>
-      <c r="E2" s="4">
         <v>44512</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44508</v>
       </c>
       <c r="D3" s="1">
-        <v>44508</v>
-      </c>
-      <c r="E3" s="1">
         <v>44509</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44508</v>
+      </c>
       <c r="D4" s="1">
+        <v>44510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
         <v>44508</v>
-      </c>
-      <c r="E4" s="1">
-        <v>44510</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
       </c>
       <c r="D5" s="1">
         <v>44508</v>
       </c>
-      <c r="E5" s="1">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
         <v>44508</v>
-      </c>
-      <c r="F5" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="1">
         <v>44508</v>
       </c>
-      <c r="E6" s="1">
-        <v>44508</v>
-      </c>
-      <c r="F6" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
         <v>26</v>
       </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44509</v>
+      </c>
       <c r="D7" s="1">
-        <v>44509</v>
-      </c>
-      <c r="E7" s="1">
         <v>44510</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44509</v>
       </c>
       <c r="D8" s="1">
-        <v>44509</v>
-      </c>
-      <c r="E8" s="1">
         <v>44512</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>28</v>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44511</v>
       </c>
       <c r="D9" s="1">
-        <v>44511</v>
-      </c>
-      <c r="E9" s="1">
         <v>44512</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>29</v>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44508</v>
       </c>
       <c r="D10" s="1">
-        <v>44508</v>
-      </c>
-      <c r="E10" s="1">
         <v>44509</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>30</v>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44510</v>
       </c>
       <c r="D11" s="1">
         <v>44510</v>
       </c>
-      <c r="E11" s="1">
-        <v>44510</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
-        <v>31</v>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44510</v>
       </c>
       <c r="D12" s="1">
         <v>44510</v>
       </c>
-      <c r="E12" s="1">
-        <v>44510</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
-        <v>32</v>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44510</v>
       </c>
       <c r="D13" s="1">
-        <v>44510</v>
-      </c>
-      <c r="E13" s="1">
         <v>44511</v>
       </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="E14" s="1">
+      <c r="B14" s="2"/>
+      <c r="D14" s="1">
         <v>44512</v>
       </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4">
+        <v>44515</v>
+      </c>
       <c r="D15" s="4">
-        <v>44515</v>
-      </c>
-      <c r="E15" s="4">
         <v>44518</v>
       </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44515</v>
       </c>
       <c r="D16" s="1">
         <v>44515</v>
       </c>
-      <c r="E16" s="1">
-        <v>44515</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44515</v>
       </c>
       <c r="D17" s="1">
-        <v>44515</v>
-      </c>
-      <c r="E17" s="1">
         <v>44516</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
-        <v>35</v>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44516</v>
       </c>
       <c r="D18" s="1">
-        <v>44516</v>
-      </c>
-      <c r="E18" s="1">
         <v>44518</v>
       </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="E19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="D19" s="1">
         <v>44518</v>
       </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="3">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4">
+        <v>44520</v>
+      </c>
       <c r="D20" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1">
         <v>44520</v>
       </c>
-      <c r="E20" s="4">
+      <c r="D21" s="1">
+        <v>44521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44521</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44530</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44522</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44524</v>
+      </c>
+      <c r="D24" s="1">
         <v>44531</v>
       </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="1">
-        <v>44520</v>
-      </c>
-      <c r="E21" s="1">
-        <v>44521</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1">
-        <v>44521</v>
-      </c>
-      <c r="E22" s="1">
-        <v>44530</v>
-      </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="1">
-        <v>44522</v>
-      </c>
-      <c r="E23" s="1">
-        <v>44528</v>
-      </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="1">
-        <v>44524</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="C25" s="2"/>
+      <c r="D25" s="5">
         <v>44531</v>
       </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="5">
-        <v>44531</v>
-      </c>
-      <c r="F25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
